--- a/ma.xlsx
+++ b/ma.xlsx
@@ -16,7 +16,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
-    <t>Tarih</t>
+    <t>Gösterge</t>
+  </si>
+  <si>
+    <t>2025-02</t>
+  </si>
+  <si>
+    <t>2025-03</t>
   </si>
   <si>
     <t>Taze meyve ve sebze</t>
@@ -89,12 +95,6 @@
   </si>
   <si>
     <t>Ekmek ve tahıllar</t>
-  </si>
-  <si>
-    <t>2025-02</t>
-  </si>
-  <si>
-    <t>2025-03</t>
   </si>
 </sst>
 </file>
@@ -452,13 +452,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z3"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -468,230 +468,340 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26">
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C2">
         <v>-5.84</v>
       </c>
       <c r="D2">
-        <v>2.29</v>
-      </c>
-      <c r="E2">
-        <v>5.62</v>
-      </c>
-      <c r="F2">
-        <v>4.57</v>
-      </c>
-      <c r="G2">
-        <v>2.86</v>
-      </c>
-      <c r="H2">
-        <v>5.87</v>
-      </c>
-      <c r="I2">
-        <v>4.35</v>
-      </c>
-      <c r="J2">
-        <v>-1.65</v>
-      </c>
-      <c r="K2">
-        <v>1.73</v>
-      </c>
-      <c r="L2">
-        <v>4.73</v>
-      </c>
-      <c r="M2">
-        <v>1.66</v>
-      </c>
-      <c r="N2">
-        <v>8.109999999999999</v>
-      </c>
-      <c r="O2">
-        <v>4.59</v>
-      </c>
-      <c r="P2">
-        <v>8.119999999999999</v>
-      </c>
-      <c r="Q2">
-        <v>5.7</v>
-      </c>
-      <c r="R2">
-        <v>-1.71</v>
-      </c>
-      <c r="S2">
-        <v>3.81</v>
-      </c>
-      <c r="T2">
-        <v>1.95</v>
-      </c>
-      <c r="U2">
-        <v>3.15</v>
-      </c>
-      <c r="V2">
-        <v>3.42</v>
-      </c>
-      <c r="W2">
-        <v>4.23</v>
-      </c>
-      <c r="X2">
-        <v>4.05</v>
-      </c>
-      <c r="Y2">
-        <v>4.74</v>
-      </c>
-      <c r="Z2">
-        <v>4.65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="C3">
-        <v>11.9</v>
+        <v>2.29</v>
       </c>
       <c r="D3">
         <v>1.52</v>
       </c>
-      <c r="E3">
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>5.62</v>
+      </c>
+      <c r="D4">
         <v>5.55</v>
       </c>
-      <c r="F3">
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>4.57</v>
+      </c>
+      <c r="D5">
         <v>4.4</v>
       </c>
-      <c r="G3">
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6">
+        <v>2.86</v>
+      </c>
+      <c r="D6">
         <v>1.8</v>
       </c>
-      <c r="H3">
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>5.87</v>
+      </c>
+      <c r="D7">
         <v>5.7</v>
       </c>
-      <c r="I3">
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <v>4.35</v>
+      </c>
+      <c r="D8">
         <v>29.31</v>
       </c>
-      <c r="J3">
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9">
+        <v>-1.65</v>
+      </c>
+      <c r="D9">
         <v>6.35</v>
       </c>
-      <c r="K3">
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10">
+        <v>1.73</v>
+      </c>
+      <c r="D10">
         <v>4.24</v>
       </c>
-      <c r="L3">
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11">
+        <v>4.73</v>
+      </c>
+      <c r="D11">
         <v>2.49</v>
       </c>
-      <c r="M3">
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12">
+        <v>1.66</v>
+      </c>
+      <c r="D12">
         <v>1.19</v>
       </c>
-      <c r="N3">
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13">
+        <v>8.109999999999999</v>
+      </c>
+      <c r="D13">
         <v>4.28</v>
       </c>
-      <c r="O3">
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14">
+        <v>4.59</v>
+      </c>
+      <c r="D14">
         <v>2.91</v>
       </c>
-      <c r="P3">
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="D15">
         <v>5.06</v>
       </c>
-      <c r="Q3">
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16">
+        <v>5.7</v>
+      </c>
+      <c r="D16">
         <v>3.6</v>
       </c>
-      <c r="R3">
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17">
+        <v>-1.71</v>
+      </c>
+      <c r="D17">
         <v>-2.85</v>
       </c>
-      <c r="S3">
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18">
+        <v>3.81</v>
+      </c>
+      <c r="D18">
         <v>5.93</v>
       </c>
-      <c r="T3">
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19">
+        <v>1.95</v>
+      </c>
+      <c r="D19">
         <v>0.07000000000000001</v>
       </c>
-      <c r="U3">
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20">
+        <v>3.15</v>
+      </c>
+      <c r="D20">
         <v>3.45</v>
       </c>
-      <c r="V3">
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21">
+        <v>3.42</v>
+      </c>
+      <c r="D21">
         <v>4.46</v>
       </c>
-      <c r="W3">
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22">
+        <v>4.23</v>
+      </c>
+      <c r="D22">
         <v>4.42</v>
       </c>
-      <c r="X3">
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23">
+        <v>4.05</v>
+      </c>
+      <c r="D23">
         <v>5.12</v>
       </c>
-      <c r="Y3">
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24">
+        <v>4.74</v>
+      </c>
+      <c r="D24">
         <v>2.66</v>
       </c>
-      <c r="Z3">
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25">
+        <v>4.65</v>
+      </c>
+      <c r="D25">
         <v>1.73</v>
       </c>
     </row>

--- a/ma.xlsx
+++ b/ma.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Gösterge</t>
   </si>
@@ -25,6 +25,27 @@
     <t>2025-03</t>
   </si>
   <si>
+    <t>Kira</t>
+  </si>
+  <si>
+    <t>Lokanta ve oteller</t>
+  </si>
+  <si>
+    <t>Diğer hizmetler</t>
+  </si>
+  <si>
+    <t>Ulaştırma hizmetleri</t>
+  </si>
+  <si>
+    <t>Hizmet</t>
+  </si>
+  <si>
+    <t>Gıda ve alkolsüz içecekler</t>
+  </si>
+  <si>
+    <t>İşlenmemiş gıda</t>
+  </si>
+  <si>
     <t>Taze meyve ve sebze</t>
   </si>
   <si>
@@ -34,67 +55,22 @@
     <t>Giyim ve ayakkabı</t>
   </si>
   <si>
-    <t>Kira</t>
-  </si>
-  <si>
-    <t>Lokanta ve oteller</t>
-  </si>
-  <si>
-    <t>Ulaştırma hizmetleri</t>
-  </si>
-  <si>
-    <t>Diğer hizmetler</t>
-  </si>
-  <si>
-    <t>İşlenmemiş gıda</t>
-  </si>
-  <si>
-    <t>Gıda ve alkolsüz içecekler</t>
-  </si>
-  <si>
-    <t>İşlenmiş Gıda</t>
-  </si>
-  <si>
-    <t>Dayanıklı Mallar (altın hariç)</t>
-  </si>
-  <si>
-    <t>Diğer Temel Mallar</t>
-  </si>
-  <si>
     <t>Temel mallar</t>
   </si>
   <si>
-    <t>Alkollü içecekler, tütün ve altın</t>
-  </si>
-  <si>
     <t>Enerji ve gıda dışı mallar</t>
   </si>
   <si>
-    <t>Haberleşme hizmetleri</t>
-  </si>
-  <si>
-    <t>Hizmet</t>
-  </si>
-  <si>
-    <t>Enerji</t>
-  </si>
-  <si>
     <t>Mallar</t>
   </si>
   <si>
+    <t>TÜFE B</t>
+  </si>
+  <si>
+    <t>TÜFE C</t>
+  </si>
+  <si>
     <t>TÜFE</t>
-  </si>
-  <si>
-    <t>TÜFE B</t>
-  </si>
-  <si>
-    <t>TÜFE C</t>
-  </si>
-  <si>
-    <t>Diğer işlenmiş gıda</t>
-  </si>
-  <si>
-    <t>Ekmek ve tahıllar</t>
   </si>
 </sst>
 </file>
@@ -452,7 +428,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -477,10 +453,10 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>-5.84</v>
+        <v>4.78</v>
       </c>
       <c r="D2">
-        <v>11.9</v>
+        <v>4.16</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -491,10 +467,10 @@
         <v>4</v>
       </c>
       <c r="C3">
-        <v>2.29</v>
+        <v>2.39</v>
       </c>
       <c r="D3">
-        <v>1.52</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -505,10 +481,10 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <v>5.62</v>
+        <v>5.17</v>
       </c>
       <c r="D4">
-        <v>5.55</v>
+        <v>9.789999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -519,10 +495,10 @@
         <v>6</v>
       </c>
       <c r="C5">
-        <v>4.57</v>
+        <v>5.85</v>
       </c>
       <c r="D5">
-        <v>4.4</v>
+        <v>5.93</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -533,10 +509,10 @@
         <v>7</v>
       </c>
       <c r="C6">
-        <v>2.86</v>
+        <v>3.78</v>
       </c>
       <c r="D6">
-        <v>1.8</v>
+        <v>5.82</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -547,10 +523,10 @@
         <v>8</v>
       </c>
       <c r="C7">
-        <v>5.87</v>
+        <v>2.09</v>
       </c>
       <c r="D7">
-        <v>5.7</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -561,10 +537,10 @@
         <v>9</v>
       </c>
       <c r="C8">
-        <v>4.35</v>
+        <v>-1.04</v>
       </c>
       <c r="D8">
-        <v>29.31</v>
+        <v>5.66</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -575,10 +551,10 @@
         <v>10</v>
       </c>
       <c r="C9">
-        <v>-1.65</v>
+        <v>-5.81</v>
       </c>
       <c r="D9">
-        <v>6.35</v>
+        <v>11.78</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -589,10 +565,10 @@
         <v>11</v>
       </c>
       <c r="C10">
-        <v>1.73</v>
+        <v>2.36</v>
       </c>
       <c r="D10">
-        <v>4.24</v>
+        <v>1.65</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -603,10 +579,10 @@
         <v>12</v>
       </c>
       <c r="C11">
-        <v>4.73</v>
+        <v>3.78</v>
       </c>
       <c r="D11">
-        <v>2.49</v>
+        <v>3.52</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -617,10 +593,10 @@
         <v>13</v>
       </c>
       <c r="C12">
-        <v>1.66</v>
+        <v>3.72</v>
       </c>
       <c r="D12">
-        <v>1.19</v>
+        <v>2.53</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -631,10 +607,10 @@
         <v>14</v>
       </c>
       <c r="C13">
-        <v>8.109999999999999</v>
+        <v>4.23</v>
       </c>
       <c r="D13">
-        <v>4.28</v>
+        <v>2.83</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -645,10 +621,10 @@
         <v>15</v>
       </c>
       <c r="C14">
-        <v>4.59</v>
+        <v>3.5</v>
       </c>
       <c r="D14">
-        <v>2.91</v>
+        <v>2.77</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -659,10 +635,10 @@
         <v>16</v>
       </c>
       <c r="C15">
-        <v>8.119999999999999</v>
+        <v>3.86</v>
       </c>
       <c r="D15">
-        <v>5.06</v>
+        <v>4.24</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -673,10 +649,10 @@
         <v>17</v>
       </c>
       <c r="C16">
-        <v>5.7</v>
+        <v>3.75</v>
       </c>
       <c r="D16">
-        <v>3.6</v>
+        <v>4.28</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -687,122 +663,10 @@
         <v>18</v>
       </c>
       <c r="C17">
-        <v>-1.71</v>
+        <v>3.59</v>
       </c>
       <c r="D17">
-        <v>-2.85</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18">
-        <v>3.81</v>
-      </c>
-      <c r="D18">
-        <v>5.93</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19">
-        <v>1.95</v>
-      </c>
-      <c r="D19">
-        <v>0.07000000000000001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20">
-        <v>3.15</v>
-      </c>
-      <c r="D20">
-        <v>3.45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21">
-        <v>3.42</v>
-      </c>
-      <c r="D21">
-        <v>4.46</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-      <c r="B22" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22">
-        <v>4.23</v>
-      </c>
-      <c r="D22">
-        <v>4.42</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="1">
-        <v>21</v>
-      </c>
-      <c r="B23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23">
-        <v>4.05</v>
-      </c>
-      <c r="D23">
-        <v>5.12</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="1">
-        <v>22</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24">
-        <v>4.74</v>
-      </c>
-      <c r="D24">
-        <v>2.66</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="1">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25">
-        <v>4.65</v>
-      </c>
-      <c r="D25">
-        <v>1.73</v>
+        <v>3.76</v>
       </c>
     </row>
   </sheetData>

--- a/ma.xlsx
+++ b/ma.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Gösterge</t>
   </si>
@@ -23,6 +23,9 @@
   </si>
   <si>
     <t>2025-03</t>
+  </si>
+  <si>
+    <t>2025-04</t>
   </si>
   <si>
     <t>Kira</t>
@@ -428,13 +431,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -444,229 +447,280 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2">
-        <v>4.78</v>
+        <v>4.8</v>
       </c>
       <c r="D2">
-        <v>4.16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>4.25</v>
+      </c>
+      <c r="E2">
+        <v>4.61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3">
-        <v>2.39</v>
+        <v>2.42</v>
       </c>
       <c r="D3">
-        <v>1.24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>1.7</v>
+      </c>
+      <c r="E3">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4">
-        <v>5.17</v>
+        <v>4.29</v>
       </c>
       <c r="D4">
-        <v>9.789999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>4.94</v>
+      </c>
+      <c r="E4">
+        <v>4.12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5">
-        <v>5.85</v>
+        <v>5.09</v>
       </c>
       <c r="D5">
-        <v>5.93</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>5.04</v>
+      </c>
+      <c r="E5">
+        <v>2.61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6">
-        <v>3.78</v>
+        <v>3.26</v>
       </c>
       <c r="D6">
-        <v>5.82</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>3.29</v>
+      </c>
+      <c r="E6">
+        <v>2.42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7">
-        <v>2.09</v>
+        <v>2.06</v>
       </c>
       <c r="D7">
-        <v>3.9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>3.85</v>
+      </c>
+      <c r="E7">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C8">
-        <v>-1.04</v>
+        <v>-1.11</v>
       </c>
       <c r="D8">
-        <v>5.66</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>5.56</v>
+      </c>
+      <c r="E8">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C9">
-        <v>-5.81</v>
+        <v>-5.91</v>
       </c>
       <c r="D9">
-        <v>11.78</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>11.7</v>
+      </c>
+      <c r="E9">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C10">
-        <v>2.36</v>
+        <v>2.29</v>
       </c>
       <c r="D10">
-        <v>1.65</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>1.56</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C11">
-        <v>3.78</v>
+        <v>3.18</v>
       </c>
       <c r="D11">
-        <v>3.52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>3.01</v>
+      </c>
+      <c r="E11">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C12">
-        <v>3.72</v>
+        <v>3.58</v>
       </c>
       <c r="D12">
-        <v>2.53</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>2.41</v>
+      </c>
+      <c r="E12">
+        <v>1.85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C13">
-        <v>4.23</v>
+        <v>4.11</v>
       </c>
       <c r="D13">
-        <v>2.83</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>2.72</v>
+      </c>
+      <c r="E13">
+        <v>2.66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C14">
-        <v>3.5</v>
+        <v>3.44</v>
       </c>
       <c r="D14">
-        <v>2.77</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>2.7</v>
+      </c>
+      <c r="E14">
+        <v>2.32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C15">
-        <v>3.86</v>
+        <v>3.54</v>
       </c>
       <c r="D15">
-        <v>4.24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>2.88</v>
+      </c>
+      <c r="E15">
+        <v>2.09</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C16">
-        <v>3.75</v>
+        <v>3.41</v>
       </c>
       <c r="D16">
-        <v>4.28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>2.88</v>
+      </c>
+      <c r="E16">
+        <v>2.15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C17">
-        <v>3.59</v>
+        <v>3.38</v>
       </c>
       <c r="D17">
-        <v>3.76</v>
+        <v>2.89</v>
+      </c>
+      <c r="E17">
+        <v>2.35</v>
       </c>
     </row>
   </sheetData>

--- a/ma.xlsx
+++ b/ma.xlsx
@@ -544,13 +544,13 @@
         <v>9</v>
       </c>
       <c r="C7">
-        <v>2.06</v>
+        <v>0.88</v>
       </c>
       <c r="D7">
-        <v>3.85</v>
+        <v>3.88</v>
       </c>
       <c r="E7">
-        <v>1.29</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -561,13 +561,13 @@
         <v>10</v>
       </c>
       <c r="C8">
-        <v>-1.11</v>
+        <v>-3.56</v>
       </c>
       <c r="D8">
-        <v>5.56</v>
+        <v>5.62</v>
       </c>
       <c r="E8">
-        <v>1.2</v>
+        <v>1.65</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -578,13 +578,13 @@
         <v>11</v>
       </c>
       <c r="C9">
-        <v>-5.91</v>
+        <v>-8.380000000000001</v>
       </c>
       <c r="D9">
-        <v>11.7</v>
+        <v>11.73</v>
       </c>
       <c r="E9">
-        <v>1.48</v>
+        <v>1.82</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -595,13 +595,13 @@
         <v>12</v>
       </c>
       <c r="C10">
-        <v>2.29</v>
+        <v>-0.16</v>
       </c>
       <c r="D10">
-        <v>1.56</v>
+        <v>1.66</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -629,13 +629,13 @@
         <v>14</v>
       </c>
       <c r="C12">
-        <v>3.58</v>
+        <v>3.59</v>
       </c>
       <c r="D12">
-        <v>2.41</v>
+        <v>2.39</v>
       </c>
       <c r="E12">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -646,13 +646,13 @@
         <v>15</v>
       </c>
       <c r="C13">
-        <v>4.11</v>
+        <v>4.06</v>
       </c>
       <c r="D13">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="E13">
-        <v>2.66</v>
+        <v>2.82</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -663,13 +663,13 @@
         <v>16</v>
       </c>
       <c r="C14">
-        <v>3.44</v>
+        <v>2.97</v>
       </c>
       <c r="D14">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="E14">
-        <v>2.32</v>
+        <v>2.58</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -683,10 +683,10 @@
         <v>3.54</v>
       </c>
       <c r="D15">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="E15">
-        <v>2.09</v>
+        <v>2.14</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -700,10 +700,10 @@
         <v>3.41</v>
       </c>
       <c r="D16">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="E16">
-        <v>2.15</v>
+        <v>2.17</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -714,13 +714,13 @@
         <v>19</v>
       </c>
       <c r="C17">
-        <v>3.38</v>
+        <v>3.06</v>
       </c>
       <c r="D17">
-        <v>2.89</v>
+        <v>2.91</v>
       </c>
       <c r="E17">
-        <v>2.35</v>
+        <v>2.52</v>
       </c>
     </row>
   </sheetData>

--- a/ma.xlsx
+++ b/ma.xlsx
@@ -459,13 +459,13 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>4.8</v>
+        <v>4.84</v>
       </c>
       <c r="D2">
-        <v>4.25</v>
+        <v>4.43</v>
       </c>
       <c r="E2">
-        <v>4.61</v>
+        <v>5.24</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -476,13 +476,13 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="D3">
-        <v>1.7</v>
+        <v>1.87</v>
       </c>
       <c r="E3">
-        <v>2.4</v>
+        <v>2.67</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -499,7 +499,7 @@
         <v>4.94</v>
       </c>
       <c r="E4">
-        <v>4.12</v>
+        <v>4.11</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -530,10 +530,10 @@
         <v>3.26</v>
       </c>
       <c r="D6">
-        <v>3.29</v>
+        <v>3.32</v>
       </c>
       <c r="E6">
-        <v>2.42</v>
+        <v>2.53</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -544,13 +544,13 @@
         <v>9</v>
       </c>
       <c r="C7">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="D7">
         <v>3.88</v>
       </c>
       <c r="E7">
-        <v>1.62</v>
+        <v>1.76</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -564,10 +564,10 @@
         <v>-3.56</v>
       </c>
       <c r="D8">
-        <v>5.62</v>
+        <v>5.63</v>
       </c>
       <c r="E8">
-        <v>1.65</v>
+        <v>1.87</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -584,7 +584,7 @@
         <v>11.73</v>
       </c>
       <c r="E9">
-        <v>1.82</v>
+        <v>2.13</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -595,13 +595,13 @@
         <v>12</v>
       </c>
       <c r="C10">
-        <v>-0.16</v>
+        <v>-0.15</v>
       </c>
       <c r="D10">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="E10">
-        <v>1.53</v>
+        <v>1.68</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -612,13 +612,13 @@
         <v>13</v>
       </c>
       <c r="C11">
-        <v>3.18</v>
+        <v>3.17</v>
       </c>
       <c r="D11">
-        <v>3.01</v>
+        <v>2.99</v>
       </c>
       <c r="E11">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -632,10 +632,10 @@
         <v>3.59</v>
       </c>
       <c r="D12">
-        <v>2.39</v>
+        <v>2.38</v>
       </c>
       <c r="E12">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -652,7 +652,7 @@
         <v>2.74</v>
       </c>
       <c r="E13">
-        <v>2.82</v>
+        <v>2.98</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -669,7 +669,7 @@
         <v>2.72</v>
       </c>
       <c r="E14">
-        <v>2.58</v>
+        <v>2.73</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -683,10 +683,10 @@
         <v>3.54</v>
       </c>
       <c r="D15">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="E15">
-        <v>2.14</v>
+        <v>2.22</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -697,13 +697,13 @@
         <v>18</v>
       </c>
       <c r="C16">
-        <v>3.41</v>
+        <v>3.42</v>
       </c>
       <c r="D16">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="E16">
-        <v>2.17</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -714,13 +714,13 @@
         <v>19</v>
       </c>
       <c r="C17">
-        <v>3.06</v>
+        <v>3.07</v>
       </c>
       <c r="D17">
-        <v>2.91</v>
+        <v>2.92</v>
       </c>
       <c r="E17">
-        <v>2.52</v>
+        <v>2.66</v>
       </c>
     </row>
   </sheetData>

--- a/ma.xlsx
+++ b/ma.xlsx
@@ -544,13 +544,13 @@
         <v>9</v>
       </c>
       <c r="C7">
-        <v>0.89</v>
+        <v>0.83</v>
       </c>
       <c r="D7">
-        <v>3.88</v>
+        <v>3.82</v>
       </c>
       <c r="E7">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -629,13 +629,13 @@
         <v>14</v>
       </c>
       <c r="C12">
-        <v>3.59</v>
+        <v>3.64</v>
       </c>
       <c r="D12">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="E12">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -646,13 +646,13 @@
         <v>15</v>
       </c>
       <c r="C13">
-        <v>4.06</v>
+        <v>4.1</v>
       </c>
       <c r="D13">
-        <v>2.74</v>
+        <v>2.77</v>
       </c>
       <c r="E13">
-        <v>2.98</v>
+        <v>2.99</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -666,10 +666,10 @@
         <v>2.97</v>
       </c>
       <c r="D14">
-        <v>2.72</v>
+        <v>2.71</v>
       </c>
       <c r="E14">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -680,13 +680,13 @@
         <v>17</v>
       </c>
       <c r="C15">
-        <v>3.54</v>
+        <v>3.55</v>
       </c>
       <c r="D15">
-        <v>2.88</v>
+        <v>2.89</v>
       </c>
       <c r="E15">
-        <v>2.22</v>
+        <v>2.23</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -697,13 +697,13 @@
         <v>18</v>
       </c>
       <c r="C16">
-        <v>3.42</v>
+        <v>3.44</v>
       </c>
       <c r="D16">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="E16">
-        <v>2.25</v>
+        <v>2.26</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -717,10 +717,10 @@
         <v>3.07</v>
       </c>
       <c r="D17">
-        <v>2.92</v>
+        <v>2.91</v>
       </c>
       <c r="E17">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
     </row>
   </sheetData>

--- a/ma.xlsx
+++ b/ma.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Gösterge</t>
   </si>
@@ -26,6 +26,9 @@
   </si>
   <si>
     <t>2025-04</t>
+  </si>
+  <si>
+    <t>2025-05</t>
   </si>
   <si>
     <t>Kira</t>
@@ -431,13 +434,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -450,277 +453,328 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2">
-        <v>4.84</v>
+        <v>4.74</v>
       </c>
       <c r="D2">
-        <v>4.43</v>
+        <v>4.36</v>
       </c>
       <c r="E2">
-        <v>5.24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>4.93</v>
+      </c>
+      <c r="F2">
+        <v>4.42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3">
-        <v>2.46</v>
+        <v>2.32</v>
       </c>
       <c r="D3">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="E3">
-        <v>2.67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>2.31</v>
+      </c>
+      <c r="F3">
+        <v>1.83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4">
-        <v>4.29</v>
+        <v>3.79</v>
       </c>
       <c r="D4">
-        <v>4.94</v>
+        <v>4.32</v>
       </c>
       <c r="E4">
-        <v>4.11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>3.7</v>
+      </c>
+      <c r="F4">
+        <v>3.38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5">
-        <v>5.09</v>
+        <v>4.67</v>
       </c>
       <c r="D5">
-        <v>5.04</v>
+        <v>4.61</v>
       </c>
       <c r="E5">
-        <v>2.61</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>1.22</v>
+      </c>
+      <c r="F5">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6">
-        <v>3.26</v>
+        <v>2.95</v>
       </c>
       <c r="D6">
-        <v>3.32</v>
+        <v>2.95</v>
       </c>
       <c r="E6">
-        <v>2.53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>2.12</v>
+      </c>
+      <c r="F6">
+        <v>2.65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C7">
-        <v>0.83</v>
+        <v>2.03</v>
       </c>
       <c r="D7">
-        <v>3.82</v>
+        <v>3.89</v>
       </c>
       <c r="E7">
-        <v>1.79</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>1.74</v>
+      </c>
+      <c r="F7">
+        <v>3.34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8">
-        <v>-3.56</v>
+        <v>-0.96</v>
       </c>
       <c r="D8">
-        <v>5.63</v>
+        <v>5.72</v>
       </c>
       <c r="E8">
-        <v>1.87</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>1.76</v>
+      </c>
+      <c r="F8">
+        <v>5.39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9">
-        <v>-8.380000000000001</v>
+        <v>-5.63</v>
       </c>
       <c r="D9">
-        <v>11.73</v>
+        <v>12.06</v>
       </c>
       <c r="E9">
-        <v>2.13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>2.73</v>
+      </c>
+      <c r="F9">
+        <v>9.359999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C10">
-        <v>-0.15</v>
+        <v>2.37</v>
       </c>
       <c r="D10">
-        <v>1.67</v>
+        <v>1.55</v>
       </c>
       <c r="E10">
-        <v>1.68</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>1.06</v>
+      </c>
+      <c r="F10">
+        <v>2.47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C11">
-        <v>3.17</v>
+        <v>2.91</v>
       </c>
       <c r="D11">
-        <v>2.99</v>
+        <v>2.59</v>
       </c>
       <c r="E11">
-        <v>1.73</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>0.82</v>
+      </c>
+      <c r="F11">
+        <v>-0.98</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C12">
-        <v>3.64</v>
+        <v>3.58</v>
       </c>
       <c r="D12">
-        <v>2.42</v>
+        <v>2.32</v>
       </c>
       <c r="E12">
-        <v>1.96</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>1.76</v>
+      </c>
+      <c r="F12">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C13">
-        <v>4.1</v>
+        <v>4.05</v>
       </c>
       <c r="D13">
-        <v>2.77</v>
+        <v>2.69</v>
       </c>
       <c r="E13">
-        <v>2.99</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>2.82</v>
+      </c>
+      <c r="F13">
+        <v>1.77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C14">
-        <v>2.97</v>
+        <v>3.4</v>
       </c>
       <c r="D14">
-        <v>2.71</v>
+        <v>2.7</v>
       </c>
       <c r="E14">
-        <v>2.75</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>2.65</v>
+      </c>
+      <c r="F14">
+        <v>2.54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C15">
-        <v>3.55</v>
+        <v>3.37</v>
       </c>
       <c r="D15">
-        <v>2.89</v>
+        <v>2.66</v>
       </c>
       <c r="E15">
-        <v>2.23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>1.94</v>
+      </c>
+      <c r="F15">
+        <v>2.02</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C16">
-        <v>3.44</v>
+        <v>3.25</v>
       </c>
       <c r="D16">
-        <v>2.9</v>
+        <v>2.66</v>
       </c>
       <c r="E16">
-        <v>2.26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>1.95</v>
+      </c>
+      <c r="F16">
+        <v>1.99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17">
-        <v>3.07</v>
+        <v>3.25</v>
       </c>
       <c r="D17">
-        <v>2.91</v>
+        <v>2.78</v>
       </c>
       <c r="E17">
-        <v>2.68</v>
+        <v>2.48</v>
+      </c>
+      <c r="F17">
+        <v>2.58</v>
       </c>
     </row>
   </sheetData>

--- a/ma.xlsx
+++ b/ma.xlsx
@@ -465,16 +465,16 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>4.74</v>
+        <v>4.59</v>
       </c>
       <c r="D2">
-        <v>4.36</v>
+        <v>4.26</v>
       </c>
       <c r="E2">
-        <v>4.93</v>
+        <v>4.54</v>
       </c>
       <c r="F2">
-        <v>4.42</v>
+        <v>3.07</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -485,16 +485,16 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>2.32</v>
+        <v>2.52</v>
       </c>
       <c r="D3">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="E3">
-        <v>2.31</v>
+        <v>2.82</v>
       </c>
       <c r="F3">
-        <v>1.83</v>
+        <v>2.96</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -505,16 +505,16 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>3.79</v>
+        <v>3.89</v>
       </c>
       <c r="D4">
-        <v>4.32</v>
+        <v>4.46</v>
       </c>
       <c r="E4">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="F4">
-        <v>3.38</v>
+        <v>3.64</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -525,16 +525,16 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>4.67</v>
+        <v>4.33</v>
       </c>
       <c r="D5">
-        <v>4.61</v>
+        <v>3.8</v>
       </c>
       <c r="E5">
-        <v>1.22</v>
+        <v>3.12</v>
       </c>
       <c r="F5">
-        <v>1.49</v>
+        <v>3.61</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -545,16 +545,16 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>2.95</v>
+        <v>2.94</v>
       </c>
       <c r="D6">
-        <v>2.95</v>
+        <v>2.92</v>
       </c>
       <c r="E6">
-        <v>2.12</v>
+        <v>2.29</v>
       </c>
       <c r="F6">
-        <v>2.65</v>
+        <v>2.76</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -565,16 +565,16 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>2.03</v>
+        <v>0.87</v>
       </c>
       <c r="D7">
-        <v>3.89</v>
+        <v>3.86</v>
       </c>
       <c r="E7">
         <v>1.74</v>
       </c>
       <c r="F7">
-        <v>3.34</v>
+        <v>3.03</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -585,16 +585,16 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>-0.96</v>
+        <v>-3.47</v>
       </c>
       <c r="D8">
-        <v>5.72</v>
+        <v>5.71</v>
       </c>
       <c r="E8">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="F8">
-        <v>5.39</v>
+        <v>4.67</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -605,16 +605,16 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>-5.63</v>
+        <v>-8.279999999999999</v>
       </c>
       <c r="D9">
-        <v>12.06</v>
+        <v>11.85</v>
       </c>
       <c r="E9">
-        <v>2.73</v>
+        <v>2.23</v>
       </c>
       <c r="F9">
-        <v>9.359999999999999</v>
+        <v>7.57</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -625,16 +625,16 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>2.37</v>
+        <v>-0.06</v>
       </c>
       <c r="D10">
-        <v>1.55</v>
+        <v>1.71</v>
       </c>
       <c r="E10">
-        <v>1.06</v>
+        <v>1.41</v>
       </c>
       <c r="F10">
-        <v>2.47</v>
+        <v>2.58</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -645,16 +645,16 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>2.91</v>
+        <v>2.89</v>
       </c>
       <c r="D11">
-        <v>2.59</v>
+        <v>2.57</v>
       </c>
       <c r="E11">
-        <v>0.82</v>
+        <v>0.96</v>
       </c>
       <c r="F11">
-        <v>-0.98</v>
+        <v>-0.46</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -671,10 +671,10 @@
         <v>2.32</v>
       </c>
       <c r="E12">
-        <v>1.76</v>
+        <v>1.82</v>
       </c>
       <c r="F12">
-        <v>1.24</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -688,13 +688,13 @@
         <v>4.05</v>
       </c>
       <c r="D13">
-        <v>2.69</v>
+        <v>2.68</v>
       </c>
       <c r="E13">
-        <v>2.82</v>
+        <v>2.87</v>
       </c>
       <c r="F13">
-        <v>1.77</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -705,16 +705,16 @@
         <v>17</v>
       </c>
       <c r="C14">
-        <v>3.4</v>
+        <v>2.96</v>
       </c>
       <c r="D14">
-        <v>2.7</v>
+        <v>2.69</v>
       </c>
       <c r="E14">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="F14">
-        <v>2.54</v>
+        <v>2.49</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -725,16 +725,16 @@
         <v>18</v>
       </c>
       <c r="C15">
-        <v>3.37</v>
+        <v>3.36</v>
       </c>
       <c r="D15">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="E15">
-        <v>1.94</v>
+        <v>2.06</v>
       </c>
       <c r="F15">
-        <v>2.02</v>
+        <v>2.28</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -745,16 +745,16 @@
         <v>19</v>
       </c>
       <c r="C16">
-        <v>3.25</v>
+        <v>3.24</v>
       </c>
       <c r="D16">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="E16">
-        <v>1.95</v>
+        <v>2.07</v>
       </c>
       <c r="F16">
-        <v>1.99</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -765,13 +765,13 @@
         <v>20</v>
       </c>
       <c r="C17">
-        <v>3.25</v>
+        <v>2.95</v>
       </c>
       <c r="D17">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="E17">
-        <v>2.48</v>
+        <v>2.55</v>
       </c>
       <c r="F17">
         <v>2.58</v>

--- a/ma.xlsx
+++ b/ma.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bora\Documents\GitHub\web-tufe-streamlit\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5498060B-81EC-42B4-AAC4-E9EBD1092D8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Gösterge</t>
   </si>
@@ -29,6 +35,9 @@
   </si>
   <si>
     <t>2025-05</t>
+  </si>
+  <si>
+    <t>2025-06</t>
   </si>
   <si>
     <t>Kira</t>
@@ -82,8 +91,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,13 +155,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -190,7 +207,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -224,6 +241,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -258,9 +276,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -433,14 +452,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:G17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="19" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -456,328 +480,380 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>4.78</v>
+      </c>
+      <c r="D2">
+        <v>4.42</v>
+      </c>
+      <c r="E2">
         <v>5</v>
       </c>
-      <c r="C2">
-        <v>4.59</v>
-      </c>
-      <c r="D2">
-        <v>4.26</v>
-      </c>
-      <c r="E2">
-        <v>4.54</v>
-      </c>
       <c r="F2">
-        <v>3.07</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>4.67</v>
+      </c>
+      <c r="G2">
+        <v>4.8099999999999996</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3">
-        <v>2.52</v>
+        <v>2.6</v>
       </c>
       <c r="D3">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="E3">
-        <v>2.82</v>
+        <v>2.96</v>
       </c>
       <c r="F3">
-        <v>2.96</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>3.19</v>
+      </c>
+      <c r="G3">
+        <v>3.33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4">
-        <v>3.89</v>
+        <v>1.88</v>
       </c>
       <c r="D4">
-        <v>4.46</v>
+        <v>3.44</v>
       </c>
       <c r="E4">
-        <v>3.8</v>
+        <v>2.62</v>
       </c>
       <c r="F4">
-        <v>3.64</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>2.54</v>
+      </c>
+      <c r="G4">
+        <v>2.79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5">
-        <v>4.33</v>
+        <v>5.03</v>
       </c>
       <c r="D5">
-        <v>3.8</v>
+        <v>4.62</v>
       </c>
       <c r="E5">
-        <v>3.12</v>
+        <v>3.81</v>
       </c>
       <c r="F5">
-        <v>3.61</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>4.37</v>
+      </c>
+      <c r="G5">
+        <v>5.87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6">
-        <v>2.94</v>
+        <v>2.88</v>
       </c>
       <c r="D6">
-        <v>2.92</v>
+        <v>2.98</v>
       </c>
       <c r="E6">
-        <v>2.29</v>
+        <v>2.98</v>
       </c>
       <c r="F6">
-        <v>2.76</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>3.29</v>
+      </c>
+      <c r="G6">
+        <v>3.66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C7">
-        <v>0.87</v>
+        <v>1.57</v>
       </c>
       <c r="D7">
-        <v>3.86</v>
+        <v>4</v>
       </c>
       <c r="E7">
-        <v>1.74</v>
+        <v>1.32</v>
       </c>
       <c r="F7">
-        <v>3.03</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>1.54</v>
+      </c>
+      <c r="G7">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C8">
-        <v>-3.47</v>
+        <v>-5.48</v>
       </c>
       <c r="D8">
-        <v>5.71</v>
+        <v>7.99</v>
       </c>
       <c r="E8">
-        <v>1.75</v>
+        <v>0.26</v>
       </c>
       <c r="F8">
-        <v>4.67</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>2.62</v>
+      </c>
+      <c r="G8">
+        <v>2.2599999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C9">
-        <v>-8.279999999999999</v>
+        <v>-11.07</v>
       </c>
       <c r="D9">
-        <v>11.85</v>
+        <v>15.1</v>
       </c>
       <c r="E9">
-        <v>2.23</v>
+        <v>-1.24</v>
       </c>
       <c r="F9">
-        <v>7.57</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>3.68</v>
+      </c>
+      <c r="G9">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C10">
-        <v>-0.06</v>
+        <v>-0.01</v>
       </c>
       <c r="D10">
-        <v>1.71</v>
+        <v>1.81</v>
       </c>
       <c r="E10">
-        <v>1.41</v>
+        <v>1.74</v>
       </c>
       <c r="F10">
-        <v>2.58</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>1.61</v>
+      </c>
+      <c r="G10">
+        <v>3.65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C11">
-        <v>2.89</v>
+        <v>3.7</v>
       </c>
       <c r="D11">
-        <v>2.57</v>
+        <v>3.54</v>
       </c>
       <c r="E11">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>-0.46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>-0.97</v>
+      </c>
+      <c r="G11">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C12">
-        <v>3.58</v>
+        <v>3.94</v>
       </c>
       <c r="D12">
-        <v>2.32</v>
+        <v>2.93</v>
       </c>
       <c r="E12">
-        <v>1.82</v>
+        <v>1.45</v>
       </c>
       <c r="F12">
-        <v>1.79</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>0.77</v>
+      </c>
+      <c r="G12">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C13">
-        <v>4.05</v>
+        <v>3.58</v>
       </c>
       <c r="D13">
-        <v>2.68</v>
+        <v>3.66</v>
       </c>
       <c r="E13">
-        <v>2.87</v>
+        <v>1.43</v>
       </c>
       <c r="F13">
-        <v>2.2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>0.76</v>
+      </c>
+      <c r="G13">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C14">
-        <v>2.96</v>
+        <v>3.03</v>
       </c>
       <c r="D14">
-        <v>2.69</v>
+        <v>3.22</v>
       </c>
       <c r="E14">
-        <v>2.67</v>
+        <v>1.81</v>
       </c>
       <c r="F14">
-        <v>2.49</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>1.24</v>
+      </c>
+      <c r="G14">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C15">
-        <v>3.36</v>
+        <v>3.89</v>
       </c>
       <c r="D15">
-        <v>2.64</v>
+        <v>2.72</v>
       </c>
       <c r="E15">
-        <v>2.06</v>
+        <v>2.17</v>
       </c>
       <c r="F15">
-        <v>2.28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>1.84</v>
+      </c>
+      <c r="G15">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C16">
-        <v>3.24</v>
+        <v>3.39</v>
       </c>
       <c r="D16">
-        <v>2.64</v>
+        <v>2.95</v>
       </c>
       <c r="E16">
-        <v>2.07</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="F16">
-        <v>2.3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="G16">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C17">
-        <v>2.95</v>
+        <v>2.98</v>
       </c>
       <c r="D17">
-        <v>2.76</v>
+        <v>3.14</v>
       </c>
       <c r="E17">
-        <v>2.55</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="F17">
-        <v>2.58</v>
+        <v>1.89</v>
+      </c>
+      <c r="G17">
+        <v>2.1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/ma.xlsx
+++ b/ma.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bora\Documents\GitHub\web-tufe-streamlit\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5498060B-81EC-42B4-AAC4-E9EBD1092D8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -91,8 +85,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -155,21 +149,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -207,7 +193,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -241,7 +227,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -276,10 +261,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -452,19 +436,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:G17"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="19" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -484,7 +463,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -492,22 +471,22 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>4.78</v>
+        <v>4.79</v>
       </c>
       <c r="D2">
-        <v>4.42</v>
+        <v>4.43</v>
       </c>
       <c r="E2">
-        <v>5</v>
+        <v>5.01</v>
       </c>
       <c r="F2">
-        <v>4.67</v>
+        <v>4.7</v>
       </c>
       <c r="G2">
-        <v>4.8099999999999996</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>4.93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -515,22 +494,22 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>2.6</v>
+        <v>2.59</v>
       </c>
       <c r="D3">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="E3">
-        <v>2.96</v>
+        <v>2.95</v>
       </c>
       <c r="F3">
-        <v>3.19</v>
+        <v>3.17</v>
       </c>
       <c r="G3">
-        <v>3.33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3.29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -538,22 +517,22 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="D4">
-        <v>3.44</v>
+        <v>3.43</v>
       </c>
       <c r="E4">
         <v>2.62</v>
       </c>
       <c r="F4">
-        <v>2.54</v>
+        <v>2.53</v>
       </c>
       <c r="G4">
-        <v>2.79</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2.77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -561,22 +540,22 @@
         <v>9</v>
       </c>
       <c r="C5">
-        <v>5.03</v>
+        <v>4.99</v>
       </c>
       <c r="D5">
-        <v>4.62</v>
+        <v>4.57</v>
       </c>
       <c r="E5">
-        <v>3.81</v>
+        <v>3.77</v>
       </c>
       <c r="F5">
-        <v>4.37</v>
+        <v>4.33</v>
       </c>
       <c r="G5">
-        <v>5.87</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>5.74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -584,22 +563,22 @@
         <v>10</v>
       </c>
       <c r="C6">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="D6">
-        <v>2.98</v>
+        <v>2.97</v>
       </c>
       <c r="E6">
-        <v>2.98</v>
+        <v>2.97</v>
       </c>
       <c r="F6">
-        <v>3.29</v>
+        <v>3.28</v>
       </c>
       <c r="G6">
-        <v>3.66</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3.65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -619,10 +598,10 @@
         <v>1.54</v>
       </c>
       <c r="G7">
-        <v>1.22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -633,7 +612,7 @@
         <v>-5.48</v>
       </c>
       <c r="D8">
-        <v>7.99</v>
+        <v>7.98</v>
       </c>
       <c r="E8">
         <v>0.26</v>
@@ -642,10 +621,10 @@
         <v>2.62</v>
       </c>
       <c r="G8">
-        <v>2.2599999999999998</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2.18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -662,13 +641,13 @@
         <v>-1.24</v>
       </c>
       <c r="F9">
-        <v>3.68</v>
+        <v>3.67</v>
       </c>
       <c r="G9">
-        <v>0.83</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -679,7 +658,7 @@
         <v>-0.01</v>
       </c>
       <c r="D10">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="E10">
         <v>1.74</v>
@@ -688,10 +667,10 @@
         <v>1.61</v>
       </c>
       <c r="G10">
-        <v>3.65</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3.57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -711,10 +690,10 @@
         <v>-0.97</v>
       </c>
       <c r="G11">
-        <v>2.33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2.36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -734,10 +713,10 @@
         <v>0.77</v>
       </c>
       <c r="G12">
-        <v>1.43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -757,10 +736,10 @@
         <v>0.76</v>
       </c>
       <c r="G13">
-        <v>1.29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -780,10 +759,10 @@
         <v>1.24</v>
       </c>
       <c r="G14">
-        <v>1.37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -803,10 +782,10 @@
         <v>1.84</v>
       </c>
       <c r="G15">
-        <v>2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -820,16 +799,16 @@
         <v>2.95</v>
       </c>
       <c r="E16">
-        <v>2.2400000000000002</v>
+        <v>2.23</v>
       </c>
       <c r="F16">
-        <v>2.0699999999999998</v>
+        <v>2.07</v>
       </c>
       <c r="G16">
         <v>2.6</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -843,17 +822,16 @@
         <v>3.14</v>
       </c>
       <c r="E17">
-        <v>2.1800000000000002</v>
+        <v>2.18</v>
       </c>
       <c r="F17">
         <v>1.89</v>
       </c>
       <c r="G17">
-        <v>2.1</v>
+        <v>2.11</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>